--- a/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Lif-Lifr.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Lif-Lifr.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -76,6 +76,9 @@
     <t>Edge total expression derived specificity</t>
   </si>
   <si>
+    <t>ECs</t>
+  </si>
+  <si>
     <t>FAPs</t>
   </si>
   <si>
@@ -88,16 +91,13 @@
     <t>Neutrophils</t>
   </si>
   <si>
+    <t>Resolving-Mac</t>
+  </si>
+  <si>
     <t>Lif</t>
   </si>
   <si>
     <t>Lifr</t>
-  </si>
-  <si>
-    <t>ECs</t>
-  </si>
-  <si>
-    <t>Resolving-Mac</t>
   </si>
 </sst>
 </file>
@@ -455,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T25"/>
+  <dimension ref="A1:T37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -528,31 +528,31 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D2" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="E2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G2">
-        <v>2.974788</v>
+        <v>0.0404</v>
       </c>
       <c r="H2">
-        <v>8.924364000000001</v>
+        <v>0.1212</v>
       </c>
       <c r="I2">
-        <v>0.7032830172353263</v>
+        <v>0.005621089064672113</v>
       </c>
       <c r="J2">
-        <v>0.7032830172353263</v>
+        <v>0.005621089064672113</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -561,28 +561,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>25.84039</v>
+        <v>20.28514233333333</v>
       </c>
       <c r="N2">
-        <v>77.52117</v>
+        <v>60.855427</v>
       </c>
       <c r="O2">
-        <v>0.2579718564739331</v>
+        <v>0.3161388824236706</v>
       </c>
       <c r="P2">
-        <v>0.2579718564739332</v>
+        <v>0.3161388824236706</v>
       </c>
       <c r="Q2">
-        <v>76.86968208732</v>
+        <v>0.8195197502666666</v>
       </c>
       <c r="R2">
-        <v>691.82713878588</v>
+        <v>7.3756777524</v>
       </c>
       <c r="S2">
-        <v>0.1814272255827862</v>
+        <v>0.001777044814909357</v>
       </c>
       <c r="T2">
-        <v>0.1814272255827863</v>
+        <v>0.001777044814909358</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,31 +590,31 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C3" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E3">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G3">
-        <v>2.974788</v>
+        <v>0.0404</v>
       </c>
       <c r="H3">
-        <v>8.924364000000001</v>
+        <v>0.1212</v>
       </c>
       <c r="I3">
-        <v>0.7032830172353263</v>
+        <v>0.005621089064672113</v>
       </c>
       <c r="J3">
-        <v>0.7032830172353263</v>
+        <v>0.005621089064672113</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -629,22 +629,22 @@
         <v>44.512854</v>
       </c>
       <c r="O3">
-        <v>0.1481280995027957</v>
+        <v>0.2312405747649756</v>
       </c>
       <c r="P3">
-        <v>0.1481280995027957</v>
+        <v>0.2312405747649756</v>
       </c>
       <c r="Q3">
-        <v>44.138767974984</v>
+        <v>0.5994397671999999</v>
       </c>
       <c r="R3">
-        <v>397.248911774856</v>
+        <v>5.3949579048</v>
       </c>
       <c r="S3">
-        <v>0.1041759767556608</v>
+        <v>0.001299823866119898</v>
       </c>
       <c r="T3">
-        <v>0.1041759767556608</v>
+        <v>0.001299823866119899</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,31 +652,31 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C4" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E4">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F4">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G4">
-        <v>2.974788</v>
+        <v>0.0404</v>
       </c>
       <c r="H4">
-        <v>8.924364000000001</v>
+        <v>0.1212</v>
       </c>
       <c r="I4">
-        <v>0.7032830172353263</v>
+        <v>0.005621089064672113</v>
       </c>
       <c r="J4">
-        <v>0.7032830172353263</v>
+        <v>0.005621089064672113</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -685,28 +685,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>9.696099333333335</v>
+        <v>14.48251866666667</v>
       </c>
       <c r="N4">
-        <v>29.088298</v>
+        <v>43.447556</v>
       </c>
       <c r="O4">
-        <v>0.09679887747730068</v>
+        <v>0.2257064402469782</v>
       </c>
       <c r="P4">
-        <v>0.09679887747730068</v>
+        <v>0.2257064402469782</v>
       </c>
       <c r="Q4">
-        <v>28.84383994360801</v>
+        <v>0.5850937541333333</v>
       </c>
       <c r="R4">
-        <v>259.5945594924721</v>
+        <v>5.2658437872</v>
       </c>
       <c r="S4">
-        <v>0.06807700661722869</v>
+        <v>0.001268716003098359</v>
       </c>
       <c r="T4">
-        <v>0.06807700661722869</v>
+        <v>0.001268716003098359</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -714,31 +714,31 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C5" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D5" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E5">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F5">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G5">
-        <v>2.974788</v>
+        <v>0.0404</v>
       </c>
       <c r="H5">
-        <v>8.924364000000001</v>
+        <v>0.1212</v>
       </c>
       <c r="I5">
-        <v>0.7032830172353263</v>
+        <v>0.005621089064672113</v>
       </c>
       <c r="J5">
-        <v>0.7032830172353263</v>
+        <v>0.005621089064672113</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -747,28 +747,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>15.27237266666666</v>
+        <v>3.784305666666667</v>
       </c>
       <c r="N5">
-        <v>45.81711799999999</v>
+        <v>11.352917</v>
       </c>
       <c r="O5">
-        <v>0.1524683772025791</v>
+        <v>0.05897745968701675</v>
       </c>
       <c r="P5">
-        <v>0.1524683772025791</v>
+        <v>0.05897745968701677</v>
       </c>
       <c r="Q5">
-        <v>45.432070940328</v>
+        <v>0.1528859489333333</v>
       </c>
       <c r="R5">
-        <v>408.888638462952</v>
+        <v>1.3759735404</v>
       </c>
       <c r="S5">
-        <v>0.1072284203520037</v>
+        <v>0.0003315175537088303</v>
       </c>
       <c r="T5">
-        <v>0.1072284203520037</v>
+        <v>0.0003315175537088303</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,31 +776,31 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
+        <v>26</v>
+      </c>
+      <c r="C6" t="s">
+        <v>27</v>
+      </c>
+      <c r="D6" t="s">
         <v>24</v>
       </c>
-      <c r="C6" t="s">
-        <v>25</v>
-      </c>
-      <c r="D6" t="s">
-        <v>23</v>
-      </c>
       <c r="E6">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F6">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G6">
-        <v>2.974788</v>
+        <v>0.0404</v>
       </c>
       <c r="H6">
-        <v>8.924364000000001</v>
+        <v>0.1212</v>
       </c>
       <c r="I6">
-        <v>0.7032830172353263</v>
+        <v>0.005621089064672113</v>
       </c>
       <c r="J6">
-        <v>0.7032830172353263</v>
+        <v>0.005621089064672113</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -809,28 +809,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>5.334888666666667</v>
+        <v>4.050310666666667</v>
       </c>
       <c r="N6">
-        <v>16.004666</v>
+        <v>12.150932</v>
       </c>
       <c r="O6">
-        <v>0.05325968893742494</v>
+        <v>0.06312308124772531</v>
       </c>
       <c r="P6">
-        <v>0.05325968893742494</v>
+        <v>0.06312308124772532</v>
       </c>
       <c r="Q6">
-        <v>15.870162786936</v>
+        <v>0.1636325509333333</v>
       </c>
       <c r="R6">
-        <v>142.831465082424</v>
+        <v>1.4726929584</v>
       </c>
       <c r="S6">
-        <v>0.03745663473292714</v>
+        <v>0.0003548204617299981</v>
       </c>
       <c r="T6">
-        <v>0.03745663473292714</v>
+        <v>0.0003548204617299981</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,31 +838,31 @@
         <v>20</v>
       </c>
       <c r="B7" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C7" t="s">
+        <v>27</v>
+      </c>
+      <c r="D7" t="s">
         <v>25</v>
       </c>
-      <c r="D7" t="s">
-        <v>27</v>
-      </c>
       <c r="E7">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F7">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G7">
-        <v>2.974788</v>
+        <v>0.0404</v>
       </c>
       <c r="H7">
-        <v>8.924364000000001</v>
+        <v>0.1212</v>
       </c>
       <c r="I7">
-        <v>0.7032830172353263</v>
+        <v>0.005621089064672113</v>
       </c>
       <c r="J7">
-        <v>0.7032830172353263</v>
+        <v>0.005621089064672113</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,28 +871,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>29.18610833333333</v>
+        <v>6.725392333333333</v>
       </c>
       <c r="N7">
-        <v>87.558325</v>
+        <v>20.176177</v>
       </c>
       <c r="O7">
-        <v>0.2913731004059664</v>
+        <v>0.1048135616296336</v>
       </c>
       <c r="P7">
-        <v>0.2913731004059664</v>
+        <v>0.1048135616296336</v>
       </c>
       <c r="Q7">
-        <v>86.8224848367</v>
+        <v>0.2717058502666667</v>
       </c>
       <c r="R7">
-        <v>781.4023635303</v>
+        <v>2.4453526524</v>
       </c>
       <c r="S7">
-        <v>0.2049177531947197</v>
+        <v>0.0005891663651056698</v>
       </c>
       <c r="T7">
-        <v>0.2049177531947197</v>
+        <v>0.0005891663651056699</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -900,31 +900,31 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C8" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D8" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="E8">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F8">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G8">
-        <v>0.6481906666666667</v>
+        <v>2.974788</v>
       </c>
       <c r="H8">
-        <v>1.944572</v>
+        <v>8.924364000000001</v>
       </c>
       <c r="I8">
-        <v>0.1532416722795409</v>
+        <v>0.4138997103098472</v>
       </c>
       <c r="J8">
-        <v>0.1532416722795409</v>
+        <v>0.4138997103098472</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -933,28 +933,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>25.84039</v>
+        <v>20.28514233333333</v>
       </c>
       <c r="N8">
-        <v>77.52117</v>
+        <v>60.855427</v>
       </c>
       <c r="O8">
-        <v>0.2579718564739331</v>
+        <v>0.3161388824236706</v>
       </c>
       <c r="P8">
-        <v>0.2579718564739332</v>
+        <v>0.3161388824236706</v>
       </c>
       <c r="Q8">
-        <v>16.74949962102667</v>
+        <v>60.343997991492</v>
       </c>
       <c r="R8">
-        <v>150.74549658924</v>
+        <v>543.095981923428</v>
       </c>
       <c r="S8">
-        <v>0.03953203868712322</v>
+        <v>0.1308497918528361</v>
       </c>
       <c r="T8">
-        <v>0.03953203868712322</v>
+        <v>0.1308497918528361</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -962,31 +962,31 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C9" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D9" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E9">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F9">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G9">
-        <v>0.6481906666666667</v>
+        <v>2.974788</v>
       </c>
       <c r="H9">
-        <v>1.944572</v>
+        <v>8.924364000000001</v>
       </c>
       <c r="I9">
-        <v>0.1532416722795409</v>
+        <v>0.4138997103098472</v>
       </c>
       <c r="J9">
-        <v>0.1532416722795409</v>
+        <v>0.4138997103098472</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -1001,22 +1001,22 @@
         <v>44.512854</v>
       </c>
       <c r="O9">
-        <v>0.1481280995027957</v>
+        <v>0.2312405747649756</v>
       </c>
       <c r="P9">
-        <v>0.1481280995027957</v>
+        <v>0.2312405747649756</v>
       </c>
       <c r="Q9">
-        <v>9.617605503165333</v>
+        <v>44.138767974984</v>
       </c>
       <c r="R9">
-        <v>86.558449528488</v>
+        <v>397.248911774856</v>
       </c>
       <c r="S9">
-        <v>0.02269939767939864</v>
+        <v>0.09571040690710596</v>
       </c>
       <c r="T9">
-        <v>0.02269939767939864</v>
+        <v>0.09571040690710597</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1024,31 +1024,31 @@
         <v>21</v>
       </c>
       <c r="B10" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C10" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D10" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E10">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F10">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G10">
-        <v>0.6481906666666667</v>
+        <v>2.974788</v>
       </c>
       <c r="H10">
-        <v>1.944572</v>
+        <v>8.924364000000001</v>
       </c>
       <c r="I10">
-        <v>0.1532416722795409</v>
+        <v>0.4138997103098472</v>
       </c>
       <c r="J10">
-        <v>0.1532416722795409</v>
+        <v>0.4138997103098472</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1057,28 +1057,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>9.696099333333335</v>
+        <v>14.48251866666667</v>
       </c>
       <c r="N10">
-        <v>29.088298</v>
+        <v>43.447556</v>
       </c>
       <c r="O10">
-        <v>0.09679887747730068</v>
+        <v>0.2257064402469782</v>
       </c>
       <c r="P10">
-        <v>0.09679887747730068</v>
+        <v>0.2257064402469782</v>
       </c>
       <c r="Q10">
-        <v>6.284921090939557</v>
+        <v>43.082422739376</v>
       </c>
       <c r="R10">
-        <v>56.564289818456</v>
+        <v>387.741804654384</v>
       </c>
       <c r="S10">
-        <v>0.01483362185940394</v>
+        <v>0.0934198302332911</v>
       </c>
       <c r="T10">
-        <v>0.01483362185940394</v>
+        <v>0.09341983023329112</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1086,31 +1086,31 @@
         <v>21</v>
       </c>
       <c r="B11" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C11" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D11" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E11">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F11">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G11">
-        <v>0.6481906666666667</v>
+        <v>2.974788</v>
       </c>
       <c r="H11">
-        <v>1.944572</v>
+        <v>8.924364000000001</v>
       </c>
       <c r="I11">
-        <v>0.1532416722795409</v>
+        <v>0.4138997103098472</v>
       </c>
       <c r="J11">
-        <v>0.1532416722795409</v>
+        <v>0.4138997103098472</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1119,28 +1119,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>15.27237266666666</v>
+        <v>3.784305666666667</v>
       </c>
       <c r="N11">
-        <v>45.81711799999999</v>
+        <v>11.352917</v>
       </c>
       <c r="O11">
-        <v>0.1524683772025791</v>
+        <v>0.05897745968701675</v>
       </c>
       <c r="P11">
-        <v>0.1524683772025791</v>
+        <v>0.05897745968701677</v>
       </c>
       <c r="Q11">
-        <v>9.899409420388443</v>
+        <v>11.257507085532</v>
       </c>
       <c r="R11">
-        <v>89.09468478349599</v>
+        <v>101.317563769788</v>
       </c>
       <c r="S11">
-        <v>0.02336450909227105</v>
+        <v>0.02441075347926693</v>
       </c>
       <c r="T11">
-        <v>0.02336450909227105</v>
+        <v>0.02441075347926693</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1148,31 +1148,31 @@
         <v>21</v>
       </c>
       <c r="B12" t="s">
+        <v>26</v>
+      </c>
+      <c r="C12" t="s">
+        <v>27</v>
+      </c>
+      <c r="D12" t="s">
         <v>24</v>
       </c>
-      <c r="C12" t="s">
-        <v>25</v>
-      </c>
-      <c r="D12" t="s">
-        <v>23</v>
-      </c>
       <c r="E12">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F12">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G12">
-        <v>0.6481906666666667</v>
+        <v>2.974788</v>
       </c>
       <c r="H12">
-        <v>1.944572</v>
+        <v>8.924364000000001</v>
       </c>
       <c r="I12">
-        <v>0.1532416722795409</v>
+        <v>0.4138997103098472</v>
       </c>
       <c r="J12">
-        <v>0.1532416722795409</v>
+        <v>0.4138997103098472</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1181,28 +1181,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>5.334888666666667</v>
+        <v>4.050310666666667</v>
       </c>
       <c r="N12">
-        <v>16.004666</v>
+        <v>12.150932</v>
       </c>
       <c r="O12">
-        <v>0.05325968893742494</v>
+        <v>0.06312308124772531</v>
       </c>
       <c r="P12">
-        <v>0.05325968893742494</v>
+        <v>0.06312308124772532</v>
       </c>
       <c r="Q12">
-        <v>3.458025041439111</v>
+        <v>12.048815567472</v>
       </c>
       <c r="R12">
-        <v>31.122225372952</v>
+        <v>108.439340107248</v>
       </c>
       <c r="S12">
-        <v>0.008161603797859162</v>
+        <v>0.02612662504229846</v>
       </c>
       <c r="T12">
-        <v>0.008161603797859161</v>
+        <v>0.02612662504229846</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1210,31 +1210,31 @@
         <v>21</v>
       </c>
       <c r="B13" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C13" t="s">
+        <v>27</v>
+      </c>
+      <c r="D13" t="s">
         <v>25</v>
       </c>
-      <c r="D13" t="s">
-        <v>27</v>
-      </c>
       <c r="E13">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F13">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G13">
-        <v>0.6481906666666667</v>
+        <v>2.974788</v>
       </c>
       <c r="H13">
-        <v>1.944572</v>
+        <v>8.924364000000001</v>
       </c>
       <c r="I13">
-        <v>0.1532416722795409</v>
+        <v>0.4138997103098472</v>
       </c>
       <c r="J13">
-        <v>0.1532416722795409</v>
+        <v>0.4138997103098472</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1243,28 +1243,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>29.18610833333333</v>
+        <v>6.725392333333333</v>
       </c>
       <c r="N13">
-        <v>87.558325</v>
+        <v>20.176177</v>
       </c>
       <c r="O13">
-        <v>0.2913731004059664</v>
+        <v>0.1048135616296336</v>
       </c>
       <c r="P13">
-        <v>0.2913731004059664</v>
+        <v>0.1048135616296336</v>
       </c>
       <c r="Q13">
-        <v>18.91816301798889</v>
+        <v>20.006616408492</v>
       </c>
       <c r="R13">
-        <v>170.2634671619</v>
+        <v>180.059547676428</v>
       </c>
       <c r="S13">
-        <v>0.04465050116348487</v>
+        <v>0.04338230279504865</v>
       </c>
       <c r="T13">
-        <v>0.04465050116348487</v>
+        <v>0.04338230279504866</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1272,31 +1272,31 @@
         <v>22</v>
       </c>
       <c r="B14" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C14" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D14" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G14">
-        <v>0.062105</v>
+        <v>1.734627333333333</v>
       </c>
       <c r="H14">
-        <v>0.186315</v>
+        <v>5.203882</v>
       </c>
       <c r="I14">
-        <v>0.01468252251434386</v>
+        <v>0.2413488795713205</v>
       </c>
       <c r="J14">
-        <v>0.01468252251434386</v>
+        <v>0.2413488795713205</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1305,28 +1305,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>25.84039</v>
+        <v>20.28514233333333</v>
       </c>
       <c r="N14">
-        <v>77.52117</v>
+        <v>60.855427</v>
       </c>
       <c r="O14">
-        <v>0.2579718564739331</v>
+        <v>0.3161388824236706</v>
       </c>
       <c r="P14">
-        <v>0.2579718564739332</v>
+        <v>0.3161388824236706</v>
       </c>
       <c r="Q14">
-        <v>1.60481742095</v>
+        <v>35.18716235195711</v>
       </c>
       <c r="R14">
-        <v>14.44335678855</v>
+        <v>316.684461167614</v>
       </c>
       <c r="S14">
-        <v>0.003787677590745605</v>
+        <v>0.07629976506188232</v>
       </c>
       <c r="T14">
-        <v>0.003787677590745606</v>
+        <v>0.07629976506188234</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1334,31 +1334,31 @@
         <v>22</v>
       </c>
       <c r="B15" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C15" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D15" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G15">
-        <v>0.062105</v>
+        <v>1.734627333333333</v>
       </c>
       <c r="H15">
-        <v>0.186315</v>
+        <v>5.203882</v>
       </c>
       <c r="I15">
-        <v>0.01468252251434386</v>
+        <v>0.2413488795713205</v>
       </c>
       <c r="J15">
-        <v>0.01468252251434386</v>
+        <v>0.2413488795713205</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1373,22 +1373,22 @@
         <v>44.512854</v>
       </c>
       <c r="O15">
-        <v>0.1481280995027957</v>
+        <v>0.2312405747649756</v>
       </c>
       <c r="P15">
-        <v>0.1481280995027957</v>
+        <v>0.2312405747649756</v>
       </c>
       <c r="Q15">
-        <v>0.9214902658899999</v>
+        <v>25.73773774435866</v>
       </c>
       <c r="R15">
-        <v>8.29341239301</v>
+        <v>231.639639699228</v>
       </c>
       <c r="S15">
-        <v>0.002174894155956765</v>
+        <v>0.05580965363095503</v>
       </c>
       <c r="T15">
-        <v>0.002174894155956765</v>
+        <v>0.05580965363095504</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1396,31 +1396,31 @@
         <v>22</v>
       </c>
       <c r="B16" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C16" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D16" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G16">
-        <v>0.062105</v>
+        <v>1.734627333333333</v>
       </c>
       <c r="H16">
-        <v>0.186315</v>
+        <v>5.203882</v>
       </c>
       <c r="I16">
-        <v>0.01468252251434386</v>
+        <v>0.2413488795713205</v>
       </c>
       <c r="J16">
-        <v>0.01468252251434386</v>
+        <v>0.2413488795713205</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1429,28 +1429,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>9.696099333333335</v>
+        <v>14.48251866666667</v>
       </c>
       <c r="N16">
-        <v>29.088298</v>
+        <v>43.447556</v>
       </c>
       <c r="O16">
-        <v>0.09679887747730068</v>
+        <v>0.2257064402469782</v>
       </c>
       <c r="P16">
-        <v>0.09679887747730068</v>
+        <v>0.2257064402469782</v>
       </c>
       <c r="Q16">
-        <v>0.6021762490966668</v>
+        <v>25.12177273471022</v>
       </c>
       <c r="R16">
-        <v>5.41958624187</v>
+        <v>226.095954612392</v>
       </c>
       <c r="S16">
-        <v>0.00142125169792368</v>
+        <v>0.05447399646563938</v>
       </c>
       <c r="T16">
-        <v>0.00142125169792368</v>
+        <v>0.05447399646563939</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1458,31 +1458,31 @@
         <v>22</v>
       </c>
       <c r="B17" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C17" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D17" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F17">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G17">
-        <v>0.062105</v>
+        <v>1.734627333333333</v>
       </c>
       <c r="H17">
-        <v>0.186315</v>
+        <v>5.203882</v>
       </c>
       <c r="I17">
-        <v>0.01468252251434386</v>
+        <v>0.2413488795713205</v>
       </c>
       <c r="J17">
-        <v>0.01468252251434386</v>
+        <v>0.2413488795713205</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1491,28 +1491,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>15.27237266666666</v>
+        <v>3.784305666666667</v>
       </c>
       <c r="N17">
-        <v>45.81711799999999</v>
+        <v>11.352917</v>
       </c>
       <c r="O17">
-        <v>0.1524683772025791</v>
+        <v>0.05897745968701675</v>
       </c>
       <c r="P17">
-        <v>0.1524683772025791</v>
+        <v>0.05897745968701677</v>
       </c>
       <c r="Q17">
-        <v>0.9484907044633332</v>
+        <v>6.564360047088223</v>
       </c>
       <c r="R17">
-        <v>8.53641634017</v>
+        <v>59.07924042379401</v>
       </c>
       <c r="S17">
-        <v>0.002238620381002339</v>
+        <v>0.01423414381542422</v>
       </c>
       <c r="T17">
-        <v>0.002238620381002339</v>
+        <v>0.01423414381542422</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1520,31 +1520,31 @@
         <v>22</v>
       </c>
       <c r="B18" t="s">
+        <v>26</v>
+      </c>
+      <c r="C18" t="s">
+        <v>27</v>
+      </c>
+      <c r="D18" t="s">
         <v>24</v>
       </c>
-      <c r="C18" t="s">
-        <v>25</v>
-      </c>
-      <c r="D18" t="s">
-        <v>23</v>
-      </c>
       <c r="E18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F18">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G18">
-        <v>0.062105</v>
+        <v>1.734627333333333</v>
       </c>
       <c r="H18">
-        <v>0.186315</v>
+        <v>5.203882</v>
       </c>
       <c r="I18">
-        <v>0.01468252251434386</v>
+        <v>0.2413488795713205</v>
       </c>
       <c r="J18">
-        <v>0.01468252251434386</v>
+        <v>0.2413488795713205</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1553,28 +1553,28 @@
         <v>1</v>
       </c>
       <c r="M18">
-        <v>5.334888666666667</v>
+        <v>4.050310666666667</v>
       </c>
       <c r="N18">
-        <v>16.004666</v>
+        <v>12.150932</v>
       </c>
       <c r="O18">
-        <v>0.05325968893742494</v>
+        <v>0.06312308124772531</v>
       </c>
       <c r="P18">
-        <v>0.05325968893742494</v>
+        <v>0.06312308124772532</v>
       </c>
       <c r="Q18">
-        <v>0.3313232606433333</v>
+        <v>7.025779590891556</v>
       </c>
       <c r="R18">
-        <v>2.98190934579</v>
+        <v>63.23201631802401</v>
       </c>
       <c r="S18">
-        <v>0.0007819865819306921</v>
+        <v>0.01523468493422794</v>
       </c>
       <c r="T18">
-        <v>0.0007819865819306921</v>
+        <v>0.01523468493422794</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1582,31 +1582,31 @@
         <v>22</v>
       </c>
       <c r="B19" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C19" t="s">
+        <v>27</v>
+      </c>
+      <c r="D19" t="s">
         <v>25</v>
       </c>
-      <c r="D19" t="s">
-        <v>27</v>
-      </c>
       <c r="E19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F19">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G19">
-        <v>0.062105</v>
+        <v>1.734627333333333</v>
       </c>
       <c r="H19">
-        <v>0.186315</v>
+        <v>5.203882</v>
       </c>
       <c r="I19">
-        <v>0.01468252251434386</v>
+        <v>0.2413488795713205</v>
       </c>
       <c r="J19">
-        <v>0.01468252251434386</v>
+        <v>0.2413488795713205</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1615,28 +1615,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>29.18610833333333</v>
+        <v>6.725392333333333</v>
       </c>
       <c r="N19">
-        <v>87.558325</v>
+        <v>20.176177</v>
       </c>
       <c r="O19">
-        <v>0.2913731004059664</v>
+        <v>0.1048135616296336</v>
       </c>
       <c r="P19">
-        <v>0.2913731004059664</v>
+        <v>0.1048135616296336</v>
       </c>
       <c r="Q19">
-        <v>1.812603258041667</v>
+        <v>11.66604936879044</v>
       </c>
       <c r="R19">
-        <v>16.313429322375</v>
+        <v>104.994444319114</v>
       </c>
       <c r="S19">
-        <v>0.004278092106784775</v>
+        <v>0.02529663566319161</v>
       </c>
       <c r="T19">
-        <v>0.004278092106784775</v>
+        <v>0.02529663566319161</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1644,31 +1644,31 @@
         <v>23</v>
       </c>
       <c r="B20" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C20" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D20" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="E20">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F20">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G20">
-        <v>0.5447753333333333</v>
+        <v>0.3080483333333333</v>
       </c>
       <c r="H20">
-        <v>1.634326</v>
+        <v>0.924145</v>
       </c>
       <c r="I20">
-        <v>0.1287927879707889</v>
+        <v>0.04286057222501163</v>
       </c>
       <c r="J20">
-        <v>0.1287927879707889</v>
+        <v>0.04286057222501163</v>
       </c>
       <c r="K20">
         <v>3</v>
@@ -1677,28 +1677,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>25.84039</v>
+        <v>20.28514233333333</v>
       </c>
       <c r="N20">
-        <v>77.52117</v>
+        <v>60.855427</v>
       </c>
       <c r="O20">
-        <v>0.2579718564739331</v>
+        <v>0.3161388824236706</v>
       </c>
       <c r="P20">
-        <v>0.2579718564739332</v>
+        <v>0.3161388824236706</v>
       </c>
       <c r="Q20">
-        <v>14.07720707571333</v>
+        <v>6.248804287212777</v>
       </c>
       <c r="R20">
-        <v>126.69486368142</v>
+        <v>56.239238584915</v>
       </c>
       <c r="S20">
-        <v>0.03322491461327805</v>
+        <v>0.01354989340325419</v>
       </c>
       <c r="T20">
-        <v>0.03322491461327806</v>
+        <v>0.01354989340325419</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1706,31 +1706,31 @@
         <v>23</v>
       </c>
       <c r="B21" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C21" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D21" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E21">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F21">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G21">
-        <v>0.5447753333333333</v>
+        <v>0.3080483333333333</v>
       </c>
       <c r="H21">
-        <v>1.634326</v>
+        <v>0.924145</v>
       </c>
       <c r="I21">
-        <v>0.1287927879707889</v>
+        <v>0.04286057222501163</v>
       </c>
       <c r="J21">
-        <v>0.1287927879707889</v>
+        <v>0.04286057222501163</v>
       </c>
       <c r="K21">
         <v>3</v>
@@ -1745,22 +1745,22 @@
         <v>44.512854</v>
       </c>
       <c r="O21">
-        <v>0.1481280995027957</v>
+        <v>0.2312405747649756</v>
       </c>
       <c r="P21">
-        <v>0.1481280995027957</v>
+        <v>0.2312405747649756</v>
       </c>
       <c r="Q21">
-        <v>8.083168291822666</v>
+        <v>4.570703495536666</v>
       </c>
       <c r="R21">
-        <v>72.74851462640399</v>
+        <v>41.13633145983</v>
       </c>
       <c r="S21">
-        <v>0.01907783091177949</v>
+        <v>0.009911103356067437</v>
       </c>
       <c r="T21">
-        <v>0.01907783091177949</v>
+        <v>0.00991110335606744</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1768,31 +1768,31 @@
         <v>23</v>
       </c>
       <c r="B22" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C22" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D22" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E22">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F22">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G22">
-        <v>0.5447753333333333</v>
+        <v>0.3080483333333333</v>
       </c>
       <c r="H22">
-        <v>1.634326</v>
+        <v>0.924145</v>
       </c>
       <c r="I22">
-        <v>0.1287927879707889</v>
+        <v>0.04286057222501163</v>
       </c>
       <c r="J22">
-        <v>0.1287927879707889</v>
+        <v>0.04286057222501163</v>
       </c>
       <c r="K22">
         <v>3</v>
@@ -1801,28 +1801,28 @@
         <v>1</v>
       </c>
       <c r="M22">
-        <v>9.696099333333335</v>
+        <v>14.48251866666667</v>
       </c>
       <c r="N22">
-        <v>29.088298</v>
+        <v>43.447556</v>
       </c>
       <c r="O22">
-        <v>0.09679887747730068</v>
+        <v>0.2257064402469782</v>
       </c>
       <c r="P22">
-        <v>0.09679887747730068</v>
+        <v>0.2257064402469782</v>
       </c>
       <c r="Q22">
-        <v>5.282195746349778</v>
+        <v>4.461315737735555</v>
       </c>
       <c r="R22">
-        <v>47.539761717148</v>
+        <v>40.15184163962</v>
       </c>
       <c r="S22">
-        <v>0.01246699730274436</v>
+        <v>0.009673907183855881</v>
       </c>
       <c r="T22">
-        <v>0.01246699730274436</v>
+        <v>0.009673907183855881</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1830,31 +1830,31 @@
         <v>23</v>
       </c>
       <c r="B23" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C23" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D23" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E23">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F23">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G23">
-        <v>0.5447753333333333</v>
+        <v>0.3080483333333333</v>
       </c>
       <c r="H23">
-        <v>1.634326</v>
+        <v>0.924145</v>
       </c>
       <c r="I23">
-        <v>0.1287927879707889</v>
+        <v>0.04286057222501163</v>
       </c>
       <c r="J23">
-        <v>0.1287927879707889</v>
+        <v>0.04286057222501163</v>
       </c>
       <c r="K23">
         <v>3</v>
@@ -1863,28 +1863,28 @@
         <v>1</v>
       </c>
       <c r="M23">
-        <v>15.27237266666666</v>
+        <v>3.784305666666667</v>
       </c>
       <c r="N23">
-        <v>45.81711799999999</v>
+        <v>11.352917</v>
       </c>
       <c r="O23">
-        <v>0.1524683772025791</v>
+        <v>0.05897745968701675</v>
       </c>
       <c r="P23">
-        <v>0.1524683772025791</v>
+        <v>0.05897745968701677</v>
       </c>
       <c r="Q23">
-        <v>8.32001191027422</v>
+        <v>1.165749053440556</v>
       </c>
       <c r="R23">
-        <v>74.88010719246799</v>
+        <v>10.491741480965</v>
       </c>
       <c r="S23">
-        <v>0.01963682737730203</v>
+        <v>0.002527807670563094</v>
       </c>
       <c r="T23">
-        <v>0.01963682737730203</v>
+        <v>0.002527807670563094</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1892,31 +1892,31 @@
         <v>23</v>
       </c>
       <c r="B24" t="s">
+        <v>26</v>
+      </c>
+      <c r="C24" t="s">
+        <v>27</v>
+      </c>
+      <c r="D24" t="s">
         <v>24</v>
       </c>
-      <c r="C24" t="s">
-        <v>25</v>
-      </c>
-      <c r="D24" t="s">
-        <v>23</v>
-      </c>
       <c r="E24">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F24">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G24">
-        <v>0.5447753333333333</v>
+        <v>0.3080483333333333</v>
       </c>
       <c r="H24">
-        <v>1.634326</v>
+        <v>0.924145</v>
       </c>
       <c r="I24">
-        <v>0.1287927879707889</v>
+        <v>0.04286057222501163</v>
       </c>
       <c r="J24">
-        <v>0.1287927879707889</v>
+        <v>0.04286057222501163</v>
       </c>
       <c r="K24">
         <v>3</v>
@@ -1925,28 +1925,28 @@
         <v>1</v>
       </c>
       <c r="M24">
-        <v>5.334888666666667</v>
+        <v>4.050310666666667</v>
       </c>
       <c r="N24">
-        <v>16.004666</v>
+        <v>12.150932</v>
       </c>
       <c r="O24">
-        <v>0.05325968893742494</v>
+        <v>0.06312308124772531</v>
       </c>
       <c r="P24">
-        <v>0.05325968893742494</v>
+        <v>0.06312308124772532</v>
       </c>
       <c r="Q24">
-        <v>2.906315751679556</v>
+        <v>1.247691450348889</v>
       </c>
       <c r="R24">
-        <v>26.156841765116</v>
+        <v>11.22922305314</v>
       </c>
       <c r="S24">
-        <v>0.006859463824707941</v>
+        <v>0.002705491382883408</v>
       </c>
       <c r="T24">
-        <v>0.006859463824707941</v>
+        <v>0.002705491382883409</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1954,61 +1954,805 @@
         <v>23</v>
       </c>
       <c r="B25" t="s">
+        <v>26</v>
+      </c>
+      <c r="C25" t="s">
+        <v>27</v>
+      </c>
+      <c r="D25" t="s">
+        <v>25</v>
+      </c>
+      <c r="E25">
+        <v>3</v>
+      </c>
+      <c r="F25">
+        <v>1</v>
+      </c>
+      <c r="G25">
+        <v>0.3080483333333333</v>
+      </c>
+      <c r="H25">
+        <v>0.924145</v>
+      </c>
+      <c r="I25">
+        <v>0.04286057222501163</v>
+      </c>
+      <c r="J25">
+        <v>0.04286057222501163</v>
+      </c>
+      <c r="K25">
+        <v>3</v>
+      </c>
+      <c r="L25">
+        <v>1</v>
+      </c>
+      <c r="M25">
+        <v>6.725392333333333</v>
+      </c>
+      <c r="N25">
+        <v>20.176177</v>
+      </c>
+      <c r="O25">
+        <v>0.1048135616296336</v>
+      </c>
+      <c r="P25">
+        <v>0.1048135616296336</v>
+      </c>
+      <c r="Q25">
+        <v>2.071745899296111</v>
+      </c>
+      <c r="R25">
+        <v>18.645713093665</v>
+      </c>
+      <c r="S25">
+        <v>0.004492369228387617</v>
+      </c>
+      <c r="T25">
+        <v>0.004492369228387617</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20">
+      <c r="A26" t="s">
         <v>24</v>
       </c>
-      <c r="C25" t="s">
+      <c r="B26" t="s">
+        <v>26</v>
+      </c>
+      <c r="C26" t="s">
+        <v>27</v>
+      </c>
+      <c r="D26" t="s">
+        <v>20</v>
+      </c>
+      <c r="E26">
+        <v>3</v>
+      </c>
+      <c r="F26">
+        <v>1</v>
+      </c>
+      <c r="G26">
+        <v>1.590376666666667</v>
+      </c>
+      <c r="H26">
+        <v>4.77113</v>
+      </c>
+      <c r="I26">
+        <v>0.2212784378641012</v>
+      </c>
+      <c r="J26">
+        <v>0.2212784378641012</v>
+      </c>
+      <c r="K26">
+        <v>3</v>
+      </c>
+      <c r="L26">
+        <v>1</v>
+      </c>
+      <c r="M26">
+        <v>20.28514233333333</v>
+      </c>
+      <c r="N26">
+        <v>60.855427</v>
+      </c>
+      <c r="O26">
+        <v>0.3161388824236706</v>
+      </c>
+      <c r="P26">
+        <v>0.3161388824236706</v>
+      </c>
+      <c r="Q26">
+        <v>32.26101704694555</v>
+      </c>
+      <c r="R26">
+        <v>290.34915342251</v>
+      </c>
+      <c r="S26">
+        <v>0.06995471805081258</v>
+      </c>
+      <c r="T26">
+        <v>0.06995471805081259</v>
+      </c>
+    </row>
+    <row r="27" spans="1:20">
+      <c r="A27" t="s">
+        <v>24</v>
+      </c>
+      <c r="B27" t="s">
+        <v>26</v>
+      </c>
+      <c r="C27" t="s">
+        <v>27</v>
+      </c>
+      <c r="D27" t="s">
+        <v>21</v>
+      </c>
+      <c r="E27">
+        <v>3</v>
+      </c>
+      <c r="F27">
+        <v>1</v>
+      </c>
+      <c r="G27">
+        <v>1.590376666666667</v>
+      </c>
+      <c r="H27">
+        <v>4.77113</v>
+      </c>
+      <c r="I27">
+        <v>0.2212784378641012</v>
+      </c>
+      <c r="J27">
+        <v>0.2212784378641012</v>
+      </c>
+      <c r="K27">
+        <v>3</v>
+      </c>
+      <c r="L27">
+        <v>1</v>
+      </c>
+      <c r="M27">
+        <v>14.837618</v>
+      </c>
+      <c r="N27">
+        <v>44.512854</v>
+      </c>
+      <c r="O27">
+        <v>0.2312405747649756</v>
+      </c>
+      <c r="P27">
+        <v>0.2312405747649756</v>
+      </c>
+      <c r="Q27">
+        <v>23.59740145611334</v>
+      </c>
+      <c r="R27">
+        <v>212.37661310502</v>
+      </c>
+      <c r="S27">
+        <v>0.05116855315479069</v>
+      </c>
+      <c r="T27">
+        <v>0.0511685531547907</v>
+      </c>
+    </row>
+    <row r="28" spans="1:20">
+      <c r="A28" t="s">
+        <v>24</v>
+      </c>
+      <c r="B28" t="s">
+        <v>26</v>
+      </c>
+      <c r="C28" t="s">
+        <v>27</v>
+      </c>
+      <c r="D28" t="s">
+        <v>22</v>
+      </c>
+      <c r="E28">
+        <v>3</v>
+      </c>
+      <c r="F28">
+        <v>1</v>
+      </c>
+      <c r="G28">
+        <v>1.590376666666667</v>
+      </c>
+      <c r="H28">
+        <v>4.77113</v>
+      </c>
+      <c r="I28">
+        <v>0.2212784378641012</v>
+      </c>
+      <c r="J28">
+        <v>0.2212784378641012</v>
+      </c>
+      <c r="K28">
+        <v>3</v>
+      </c>
+      <c r="L28">
+        <v>1</v>
+      </c>
+      <c r="M28">
+        <v>14.48251866666667</v>
+      </c>
+      <c r="N28">
+        <v>43.447556</v>
+      </c>
+      <c r="O28">
+        <v>0.2257064402469782</v>
+      </c>
+      <c r="P28">
+        <v>0.2257064402469782</v>
+      </c>
+      <c r="Q28">
+        <v>23.03265976203111</v>
+      </c>
+      <c r="R28">
+        <v>207.29393785828</v>
+      </c>
+      <c r="S28">
+        <v>0.04994396851371842</v>
+      </c>
+      <c r="T28">
+        <v>0.04994396851371843</v>
+      </c>
+    </row>
+    <row r="29" spans="1:20">
+      <c r="A29" t="s">
+        <v>24</v>
+      </c>
+      <c r="B29" t="s">
+        <v>26</v>
+      </c>
+      <c r="C29" t="s">
+        <v>27</v>
+      </c>
+      <c r="D29" t="s">
+        <v>23</v>
+      </c>
+      <c r="E29">
+        <v>3</v>
+      </c>
+      <c r="F29">
+        <v>1</v>
+      </c>
+      <c r="G29">
+        <v>1.590376666666667</v>
+      </c>
+      <c r="H29">
+        <v>4.77113</v>
+      </c>
+      <c r="I29">
+        <v>0.2212784378641012</v>
+      </c>
+      <c r="J29">
+        <v>0.2212784378641012</v>
+      </c>
+      <c r="K29">
+        <v>3</v>
+      </c>
+      <c r="L29">
+        <v>1</v>
+      </c>
+      <c r="M29">
+        <v>3.784305666666667</v>
+      </c>
+      <c r="N29">
+        <v>11.352917</v>
+      </c>
+      <c r="O29">
+        <v>0.05897745968701675</v>
+      </c>
+      <c r="P29">
+        <v>0.05897745968701677</v>
+      </c>
+      <c r="Q29">
+        <v>6.018471431801112</v>
+      </c>
+      <c r="R29">
+        <v>54.16624288621001</v>
+      </c>
+      <c r="S29">
+        <v>0.01305044014873607</v>
+      </c>
+      <c r="T29">
+        <v>0.01305044014873607</v>
+      </c>
+    </row>
+    <row r="30" spans="1:20">
+      <c r="A30" t="s">
+        <v>24</v>
+      </c>
+      <c r="B30" t="s">
+        <v>26</v>
+      </c>
+      <c r="C30" t="s">
+        <v>27</v>
+      </c>
+      <c r="D30" t="s">
+        <v>24</v>
+      </c>
+      <c r="E30">
+        <v>3</v>
+      </c>
+      <c r="F30">
+        <v>1</v>
+      </c>
+      <c r="G30">
+        <v>1.590376666666667</v>
+      </c>
+      <c r="H30">
+        <v>4.77113</v>
+      </c>
+      <c r="I30">
+        <v>0.2212784378641012</v>
+      </c>
+      <c r="J30">
+        <v>0.2212784378641012</v>
+      </c>
+      <c r="K30">
+        <v>3</v>
+      </c>
+      <c r="L30">
+        <v>1</v>
+      </c>
+      <c r="M30">
+        <v>4.050310666666667</v>
+      </c>
+      <c r="N30">
+        <v>12.150932</v>
+      </c>
+      <c r="O30">
+        <v>0.06312308124772531</v>
+      </c>
+      <c r="P30">
+        <v>0.06312308124772532</v>
+      </c>
+      <c r="Q30">
+        <v>6.441519577017779</v>
+      </c>
+      <c r="R30">
+        <v>57.97367619316001</v>
+      </c>
+      <c r="S30">
+        <v>0.0139677768116654</v>
+      </c>
+      <c r="T30">
+        <v>0.0139677768116654</v>
+      </c>
+    </row>
+    <row r="31" spans="1:20">
+      <c r="A31" t="s">
+        <v>24</v>
+      </c>
+      <c r="B31" t="s">
+        <v>26</v>
+      </c>
+      <c r="C31" t="s">
+        <v>27</v>
+      </c>
+      <c r="D31" t="s">
         <v>25</v>
       </c>
-      <c r="D25" t="s">
-        <v>27</v>
-      </c>
-      <c r="E25">
-        <v>2</v>
-      </c>
-      <c r="F25">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="G25">
-        <v>0.5447753333333333</v>
-      </c>
-      <c r="H25">
-        <v>1.634326</v>
-      </c>
-      <c r="I25">
-        <v>0.1287927879707889</v>
-      </c>
-      <c r="J25">
-        <v>0.1287927879707889</v>
-      </c>
-      <c r="K25">
-        <v>3</v>
-      </c>
-      <c r="L25">
-        <v>1</v>
-      </c>
-      <c r="M25">
-        <v>29.18610833333333</v>
-      </c>
-      <c r="N25">
-        <v>87.558325</v>
-      </c>
-      <c r="O25">
-        <v>0.2913731004059664</v>
-      </c>
-      <c r="P25">
-        <v>0.2913731004059664</v>
-      </c>
-      <c r="Q25">
-        <v>15.89987189599444</v>
-      </c>
-      <c r="R25">
-        <v>143.09884706395</v>
-      </c>
-      <c r="S25">
-        <v>0.03752675394097702</v>
-      </c>
-      <c r="T25">
-        <v>0.03752675394097702</v>
+      <c r="E31">
+        <v>3</v>
+      </c>
+      <c r="F31">
+        <v>1</v>
+      </c>
+      <c r="G31">
+        <v>1.590376666666667</v>
+      </c>
+      <c r="H31">
+        <v>4.77113</v>
+      </c>
+      <c r="I31">
+        <v>0.2212784378641012</v>
+      </c>
+      <c r="J31">
+        <v>0.2212784378641012</v>
+      </c>
+      <c r="K31">
+        <v>3</v>
+      </c>
+      <c r="L31">
+        <v>1</v>
+      </c>
+      <c r="M31">
+        <v>6.725392333333333</v>
+      </c>
+      <c r="N31">
+        <v>20.176177</v>
+      </c>
+      <c r="O31">
+        <v>0.1048135616296336</v>
+      </c>
+      <c r="P31">
+        <v>0.1048135616296336</v>
+      </c>
+      <c r="Q31">
+        <v>10.69590704111222</v>
+      </c>
+      <c r="R31">
+        <v>96.26316337001001</v>
+      </c>
+      <c r="S31">
+        <v>0.02319298118437801</v>
+      </c>
+      <c r="T31">
+        <v>0.02319298118437801</v>
+      </c>
+    </row>
+    <row r="32" spans="1:20">
+      <c r="A32" t="s">
+        <v>25</v>
+      </c>
+      <c r="B32" t="s">
+        <v>26</v>
+      </c>
+      <c r="C32" t="s">
+        <v>27</v>
+      </c>
+      <c r="D32" t="s">
+        <v>20</v>
+      </c>
+      <c r="E32">
+        <v>3</v>
+      </c>
+      <c r="F32">
+        <v>1</v>
+      </c>
+      <c r="G32">
+        <v>0.538979</v>
+      </c>
+      <c r="H32">
+        <v>1.616937</v>
+      </c>
+      <c r="I32">
+        <v>0.0749913109650473</v>
+      </c>
+      <c r="J32">
+        <v>0.07499131096504731</v>
+      </c>
+      <c r="K32">
+        <v>3</v>
+      </c>
+      <c r="L32">
+        <v>1</v>
+      </c>
+      <c r="M32">
+        <v>20.28514233333333</v>
+      </c>
+      <c r="N32">
+        <v>60.855427</v>
+      </c>
+      <c r="O32">
+        <v>0.3161388824236706</v>
+      </c>
+      <c r="P32">
+        <v>0.3161388824236706</v>
+      </c>
+      <c r="Q32">
+        <v>10.93326572967767</v>
+      </c>
+      <c r="R32">
+        <v>98.399391567099</v>
+      </c>
+      <c r="S32">
+        <v>0.02370766923997601</v>
+      </c>
+      <c r="T32">
+        <v>0.02370766923997601</v>
+      </c>
+    </row>
+    <row r="33" spans="1:20">
+      <c r="A33" t="s">
+        <v>25</v>
+      </c>
+      <c r="B33" t="s">
+        <v>26</v>
+      </c>
+      <c r="C33" t="s">
+        <v>27</v>
+      </c>
+      <c r="D33" t="s">
+        <v>21</v>
+      </c>
+      <c r="E33">
+        <v>3</v>
+      </c>
+      <c r="F33">
+        <v>1</v>
+      </c>
+      <c r="G33">
+        <v>0.538979</v>
+      </c>
+      <c r="H33">
+        <v>1.616937</v>
+      </c>
+      <c r="I33">
+        <v>0.0749913109650473</v>
+      </c>
+      <c r="J33">
+        <v>0.07499131096504731</v>
+      </c>
+      <c r="K33">
+        <v>3</v>
+      </c>
+      <c r="L33">
+        <v>1</v>
+      </c>
+      <c r="M33">
+        <v>14.837618</v>
+      </c>
+      <c r="N33">
+        <v>44.512854</v>
+      </c>
+      <c r="O33">
+        <v>0.2312405747649756</v>
+      </c>
+      <c r="P33">
+        <v>0.2312405747649756</v>
+      </c>
+      <c r="Q33">
+        <v>7.997164512022</v>
+      </c>
+      <c r="R33">
+        <v>71.97448060819799</v>
+      </c>
+      <c r="S33">
+        <v>0.01734103384993655</v>
+      </c>
+      <c r="T33">
+        <v>0.01734103384993656</v>
+      </c>
+    </row>
+    <row r="34" spans="1:20">
+      <c r="A34" t="s">
+        <v>25</v>
+      </c>
+      <c r="B34" t="s">
+        <v>26</v>
+      </c>
+      <c r="C34" t="s">
+        <v>27</v>
+      </c>
+      <c r="D34" t="s">
+        <v>22</v>
+      </c>
+      <c r="E34">
+        <v>3</v>
+      </c>
+      <c r="F34">
+        <v>1</v>
+      </c>
+      <c r="G34">
+        <v>0.538979</v>
+      </c>
+      <c r="H34">
+        <v>1.616937</v>
+      </c>
+      <c r="I34">
+        <v>0.0749913109650473</v>
+      </c>
+      <c r="J34">
+        <v>0.07499131096504731</v>
+      </c>
+      <c r="K34">
+        <v>3</v>
+      </c>
+      <c r="L34">
+        <v>1</v>
+      </c>
+      <c r="M34">
+        <v>14.48251866666667</v>
+      </c>
+      <c r="N34">
+        <v>43.447556</v>
+      </c>
+      <c r="O34">
+        <v>0.2257064402469782</v>
+      </c>
+      <c r="P34">
+        <v>0.2257064402469782</v>
+      </c>
+      <c r="Q34">
+        <v>7.805773428441332</v>
+      </c>
+      <c r="R34">
+        <v>70.251960855972</v>
+      </c>
+      <c r="S34">
+        <v>0.01692602184737501</v>
+      </c>
+      <c r="T34">
+        <v>0.01692602184737501</v>
+      </c>
+    </row>
+    <row r="35" spans="1:20">
+      <c r="A35" t="s">
+        <v>25</v>
+      </c>
+      <c r="B35" t="s">
+        <v>26</v>
+      </c>
+      <c r="C35" t="s">
+        <v>27</v>
+      </c>
+      <c r="D35" t="s">
+        <v>23</v>
+      </c>
+      <c r="E35">
+        <v>3</v>
+      </c>
+      <c r="F35">
+        <v>1</v>
+      </c>
+      <c r="G35">
+        <v>0.538979</v>
+      </c>
+      <c r="H35">
+        <v>1.616937</v>
+      </c>
+      <c r="I35">
+        <v>0.0749913109650473</v>
+      </c>
+      <c r="J35">
+        <v>0.07499131096504731</v>
+      </c>
+      <c r="K35">
+        <v>3</v>
+      </c>
+      <c r="L35">
+        <v>1</v>
+      </c>
+      <c r="M35">
+        <v>3.784305666666667</v>
+      </c>
+      <c r="N35">
+        <v>11.352917</v>
+      </c>
+      <c r="O35">
+        <v>0.05897745968701675</v>
+      </c>
+      <c r="P35">
+        <v>0.05897745968701677</v>
+      </c>
+      <c r="Q35">
+        <v>2.039661283914334</v>
+      </c>
+      <c r="R35">
+        <v>18.356951555229</v>
+      </c>
+      <c r="S35">
+        <v>0.004422797019317614</v>
+      </c>
+      <c r="T35">
+        <v>0.004422797019317616</v>
+      </c>
+    </row>
+    <row r="36" spans="1:20">
+      <c r="A36" t="s">
+        <v>25</v>
+      </c>
+      <c r="B36" t="s">
+        <v>26</v>
+      </c>
+      <c r="C36" t="s">
+        <v>27</v>
+      </c>
+      <c r="D36" t="s">
+        <v>24</v>
+      </c>
+      <c r="E36">
+        <v>3</v>
+      </c>
+      <c r="F36">
+        <v>1</v>
+      </c>
+      <c r="G36">
+        <v>0.538979</v>
+      </c>
+      <c r="H36">
+        <v>1.616937</v>
+      </c>
+      <c r="I36">
+        <v>0.0749913109650473</v>
+      </c>
+      <c r="J36">
+        <v>0.07499131096504731</v>
+      </c>
+      <c r="K36">
+        <v>3</v>
+      </c>
+      <c r="L36">
+        <v>1</v>
+      </c>
+      <c r="M36">
+        <v>4.050310666666667</v>
+      </c>
+      <c r="N36">
+        <v>12.150932</v>
+      </c>
+      <c r="O36">
+        <v>0.06312308124772531</v>
+      </c>
+      <c r="P36">
+        <v>0.06312308124772532</v>
+      </c>
+      <c r="Q36">
+        <v>2.183032392809334</v>
+      </c>
+      <c r="R36">
+        <v>19.647291535284</v>
+      </c>
+      <c r="S36">
+        <v>0.004733682614920114</v>
+      </c>
+      <c r="T36">
+        <v>0.004733682614920116</v>
+      </c>
+    </row>
+    <row r="37" spans="1:20">
+      <c r="A37" t="s">
+        <v>25</v>
+      </c>
+      <c r="B37" t="s">
+        <v>26</v>
+      </c>
+      <c r="C37" t="s">
+        <v>27</v>
+      </c>
+      <c r="D37" t="s">
+        <v>25</v>
+      </c>
+      <c r="E37">
+        <v>3</v>
+      </c>
+      <c r="F37">
+        <v>1</v>
+      </c>
+      <c r="G37">
+        <v>0.538979</v>
+      </c>
+      <c r="H37">
+        <v>1.616937</v>
+      </c>
+      <c r="I37">
+        <v>0.0749913109650473</v>
+      </c>
+      <c r="J37">
+        <v>0.07499131096504731</v>
+      </c>
+      <c r="K37">
+        <v>3</v>
+      </c>
+      <c r="L37">
+        <v>1</v>
+      </c>
+      <c r="M37">
+        <v>6.725392333333333</v>
+      </c>
+      <c r="N37">
+        <v>20.176177</v>
+      </c>
+      <c r="O37">
+        <v>0.1048135616296336</v>
+      </c>
+      <c r="P37">
+        <v>0.1048135616296336</v>
+      </c>
+      <c r="Q37">
+        <v>3.624845234427666</v>
+      </c>
+      <c r="R37">
+        <v>32.623607109849</v>
+      </c>
+      <c r="S37">
+        <v>0.007860106393522</v>
+      </c>
+      <c r="T37">
+        <v>0.007860106393522002</v>
       </c>
     </row>
   </sheetData>
